--- a/res/convenience/items.xlsx
+++ b/res/convenience/items.xlsx
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1746,7 +1746,7 @@
         <v>66</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>67</v>

--- a/res/convenience/items.xlsx
+++ b/res/convenience/items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="126">
   <si>
     <t>Item ID</t>
   </si>
@@ -380,6 +380,18 @@
   </si>
   <si>
     <t>2, 1</t>
+  </si>
+  <si>
+    <t>itd_head_necrot3</t>
+  </si>
+  <si>
+    <t>it_eq_head_necrot3</t>
+  </si>
+  <si>
+    <t>0, 200</t>
+  </si>
+  <si>
+    <t>res/assets/equipment/head/spritesheet_head_necrot3.png</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1845,7 +1857,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -1869,6 +1881,41 @@
       </c>
       <c r="X17">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18">
+        <v>120</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/res/convenience/items.xlsx
+++ b/res/convenience/items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
   <si>
     <t>Item ID</t>
   </si>
@@ -392,6 +392,18 @@
   </si>
   <si>
     <t>res/assets/equipment/head/spritesheet_head_necrot3.png</t>
+  </si>
+  <si>
+    <t>it_eq_back_necrot3</t>
+  </si>
+  <si>
+    <t>itd_back_necrot3</t>
+  </si>
+  <si>
+    <t>50, 200</t>
+  </si>
+  <si>
+    <t>res/assets/equipment/back/spritesheet_back_necrot3.png</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1918,6 +1930,47 @@
         <v>125</v>
       </c>
     </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19">
+        <v>150</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/res/convenience/items.xlsx
+++ b/res/convenience/items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
   <si>
     <t>Item ID</t>
   </si>
@@ -404,6 +404,18 @@
   </si>
   <si>
     <t>res/assets/equipment/back/spritesheet_back_necrot3.png</t>
+  </si>
+  <si>
+    <t>itd_body_necrot3</t>
+  </si>
+  <si>
+    <t>it_eq_body_necrot3</t>
+  </si>
+  <si>
+    <t>100, 200</t>
+  </si>
+  <si>
+    <t>res/assets/equipment/body/spritesheet_body_necrot3.png</t>
   </si>
 </sst>
 </file>
@@ -1226,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1971,6 +1983,59 @@
         <v>129</v>
       </c>
     </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20">
+        <v>200</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="O20">
+        <v>30</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>5</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/res/convenience/items.xlsx
+++ b/res/convenience/items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="142">
   <si>
     <t>Item ID</t>
   </si>
@@ -416,6 +416,30 @@
   </si>
   <si>
     <t>res/assets/equipment/body/spritesheet_body_necrot3.png</t>
+  </si>
+  <si>
+    <t>res/assets/equipment/head/spritesheet_head_rafishat.png</t>
+  </si>
+  <si>
+    <t>0, 250</t>
+  </si>
+  <si>
+    <t>it_eq_rafishat</t>
+  </si>
+  <si>
+    <t>itd_rafishat</t>
+  </si>
+  <si>
+    <t>res/assets/equipment/head/spritesheet_head_divinet3.png</t>
+  </si>
+  <si>
+    <t>it_eq_head_divinet3</t>
+  </si>
+  <si>
+    <t>itd_head_divinet3</t>
+  </si>
+  <si>
+    <t>150, 200</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2036,6 +2060,85 @@
         <v>133</v>
       </c>
     </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>-20</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22">
+        <v>120</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>10</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/res/convenience/items.xlsx
+++ b/res/convenience/items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="148">
   <si>
     <t>Item ID</t>
   </si>
@@ -440,6 +440,24 @@
   </si>
   <si>
     <t>150, 200</t>
+  </si>
+  <si>
+    <t>it_fo_lesserhealingpotion</t>
+  </si>
+  <si>
+    <t>itd_lesserhealingpotion</t>
+  </si>
+  <si>
+    <t>100, 100</t>
+  </si>
+  <si>
+    <t>-15, -2</t>
+  </si>
+  <si>
+    <t>20, 46</t>
+  </si>
+  <si>
+    <t>100, 100, 50, 50</t>
   </si>
 </sst>
 </file>
@@ -1262,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1835,7 +1853,7 @@
         <v>71</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>86</v>
@@ -2137,6 +2155,41 @@
       </c>
       <c r="Y22" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V23" t="s">
+        <v>146</v>
+      </c>
+      <c r="W23" t="s">
+        <v>147</v>
+      </c>
+      <c r="X23">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/res/convenience/items.xlsx
+++ b/res/convenience/items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="151">
   <si>
     <t>Item ID</t>
   </si>
@@ -458,6 +458,15 @@
   </si>
   <si>
     <t>100, 100, 50, 50</t>
+  </si>
+  <si>
+    <t>itd_rawmeat</t>
+  </si>
+  <si>
+    <t>200, 50</t>
+  </si>
+  <si>
+    <t>it_fo_rawmeat</t>
   </si>
 </sst>
 </file>
@@ -1280,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2192,6 +2201,32 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="24" spans="1:25">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="T24">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
